--- a/ConvertedEqual/Wyoming_Converted.xlsx
+++ b/ConvertedEqual/Wyoming_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="273">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -798,6 +798,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X221"/>
+  <dimension ref="A1:X233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1335,6 +1371,9 @@
       <c r="K3" s="2">
         <v>43909</v>
       </c>
+      <c r="L3" s="2">
+        <v>43909</v>
+      </c>
       <c r="M3" s="2">
         <v>43915</v>
       </c>
@@ -1476,13 +1515,13 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
       <c r="X7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -2857,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2893,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2931,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2967,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -3005,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3041,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -3079,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3115,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3153,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3189,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3227,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3263,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3301,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -3337,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3375,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -3411,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3449,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -3485,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3523,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -3559,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3597,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -3633,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3671,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -3707,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3745,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -3781,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3819,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -3855,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3893,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -3929,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3967,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -4003,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4041,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -4077,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4115,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -4151,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4189,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -4225,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4263,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -4299,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4337,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -4373,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4411,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -4447,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4485,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -4521,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4559,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -4595,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4633,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -4669,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4707,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -4743,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4781,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -4817,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4855,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -4891,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4929,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -4965,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -5003,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -5039,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -5077,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -5113,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -5151,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -5187,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="X58">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -5225,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -5261,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5299,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -5335,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5373,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -5409,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5447,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -5483,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5521,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -5557,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -5595,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -5631,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -5669,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -5705,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="X65">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -5743,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -5779,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="X66">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5817,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -5853,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="X67">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -5891,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -5927,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="X68">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -5965,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -6001,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="X69">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -6039,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -6075,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="X70">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -6113,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -6149,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="X71">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -6187,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -6223,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="X72">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -6261,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -6297,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="X73">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -6335,7 +6374,7 @@
         <v>1</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -6371,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="X74">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -6409,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -6445,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="X75">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -6483,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -6519,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -6557,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -6593,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -6631,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -6667,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -6705,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -6741,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -6779,7 +6818,7 @@
         <v>1</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -6815,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="X80">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -6853,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -6889,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="X81">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -6927,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -6963,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="X82">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -7001,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -7037,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -7075,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -7111,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>0.3461538461538461</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -7185,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -7259,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -7333,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -7407,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -7481,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -7555,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -7629,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -7703,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -7777,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -7851,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -7925,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -7999,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -8073,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -8147,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="X98">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -8221,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="X99">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -8295,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="X100">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -8369,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="X101">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -8443,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="X102">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -8517,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="X103">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -8591,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="X104">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:24">
@@ -8665,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="X105">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -8739,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="X106">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -8813,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="X107">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -8887,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="X108">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -8961,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="X109">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -9035,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="X110">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -9109,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="X111">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -9183,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="X112">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -9257,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="X113">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -9331,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="X114">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -9405,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="X115">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -9479,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="X116">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -9553,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="X117">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -9627,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="X118">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -9701,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="X119">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -9775,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="X120">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -9849,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="X121">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -9923,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="X122">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -9997,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="X123">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -10071,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="X124">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -10145,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="X125">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -10219,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="X126">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -10293,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="X127">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -10367,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="X128">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -10441,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="X129">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -10515,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="X130">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -10589,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="X131">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -10663,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="X132">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -10737,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="X133">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -10811,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="X134">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -10885,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="X135">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -10959,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="X136">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -11033,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="X137">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -11107,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="X138">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -11181,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="X139">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -11255,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="X140">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -11329,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="X141">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -11403,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="X142">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -11477,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="X143">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -11551,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="X144">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -11625,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="X145">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -11699,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="X146">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -11773,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="X147">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -11847,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="X148">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -11921,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="X149">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -11995,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="X150">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -12069,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="X151">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -12143,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="X152">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -12217,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="X153">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -12291,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="X154">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -12365,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="X155">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -12439,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="X156">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:24">
@@ -12513,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="X157">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -12587,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="X158">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:24">
@@ -12661,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="X159">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -12735,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="X160">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:24">
@@ -12809,7 +12848,7 @@
         <v>0</v>
       </c>
       <c r="X161">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -12883,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="X162">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:24">
@@ -12957,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="X163">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="164" spans="1:24">
@@ -13031,7 +13070,7 @@
         <v>0</v>
       </c>
       <c r="X164">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:24">
@@ -13105,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="X165">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:24">
@@ -13179,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="X166">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:24">
@@ -13253,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="X167">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:24">
@@ -13327,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="X168">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:24">
@@ -13401,7 +13440,7 @@
         <v>0</v>
       </c>
       <c r="X169">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:24">
@@ -13475,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="X170">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -13549,7 +13588,7 @@
         <v>0</v>
       </c>
       <c r="X171">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -13623,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="X172">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -13697,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="X173">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:24">
@@ -13771,7 +13810,7 @@
         <v>0</v>
       </c>
       <c r="X174">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:24">
@@ -13845,7 +13884,7 @@
         <v>0</v>
       </c>
       <c r="X175">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:24">
@@ -13919,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="X176">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -13993,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="X177">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:24">
@@ -14067,7 +14106,7 @@
         <v>0</v>
       </c>
       <c r="X178">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:24">
@@ -14141,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="X179">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:24">
@@ -14215,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="X180">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:24">
@@ -14289,7 +14328,7 @@
         <v>0</v>
       </c>
       <c r="X181">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -14363,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="X182">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:24">
@@ -14437,7 +14476,7 @@
         <v>0</v>
       </c>
       <c r="X183">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:24">
@@ -14511,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="X184">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="185" spans="1:24">
@@ -14585,7 +14624,7 @@
         <v>0</v>
       </c>
       <c r="X185">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -14659,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="X186">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:24">
@@ -14733,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="X187">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:24">
@@ -14807,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="X188">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:24">
@@ -14881,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="X189">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:24">
@@ -14955,7 +14994,7 @@
         <v>0</v>
       </c>
       <c r="X190">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:24">
@@ -15029,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="X191">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -15103,7 +15142,7 @@
         <v>0</v>
       </c>
       <c r="X192">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:24">
@@ -15177,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="X193">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:24">
@@ -15251,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="X194">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -15325,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="X195">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -15399,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="X196">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -15473,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="X197">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -15547,7 +15586,7 @@
         <v>0</v>
       </c>
       <c r="X198">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:24">
@@ -15621,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="X199">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:24">
@@ -15695,7 +15734,7 @@
         <v>0</v>
       </c>
       <c r="X200">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -15769,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="X201">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:24">
@@ -15843,7 +15882,7 @@
         <v>0</v>
       </c>
       <c r="X202">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:24">
@@ -15917,7 +15956,7 @@
         <v>0</v>
       </c>
       <c r="X203">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:24">
@@ -15991,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="X204">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -16065,7 +16104,7 @@
         <v>0</v>
       </c>
       <c r="X205">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -16139,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="X206">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:24">
@@ -16213,7 +16252,7 @@
         <v>0</v>
       </c>
       <c r="X207">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:24">
@@ -16287,7 +16326,7 @@
         <v>0</v>
       </c>
       <c r="X208">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:24">
@@ -16361,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="X209">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:24">
@@ -16435,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="X210">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:24">
@@ -16509,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="X211">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:24">
@@ -16583,7 +16622,7 @@
         <v>0</v>
       </c>
       <c r="X212">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -16657,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="X213">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:24">
@@ -16731,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="X214">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -16805,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="X215">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:24">
@@ -16879,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="X216">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:24">
@@ -16953,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="X217">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -17027,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="X218">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:24">
@@ -17101,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="X219">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -17175,7 +17214,7 @@
         <v>0</v>
       </c>
       <c r="X220">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="221" spans="1:24">
@@ -17249,7 +17288,895 @@
         <v>0</v>
       </c>
       <c r="X221">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24">
+      <c r="A222" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24">
+      <c r="A223" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24">
+      <c r="A224" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24">
+      <c r="A225" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24">
+      <c r="A226" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24">
+      <c r="A227" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24">
+      <c r="A228" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24">
+      <c r="A229" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24">
+      <c r="A230" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24">
+      <c r="A231" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24">
+      <c r="A232" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24">
+      <c r="A233" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0.1666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -17411,6 +18338,9 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
+      <c r="C12" s="2">
+        <v>43909</v>
+      </c>
       <c r="D12" s="2">
         <v>43966</v>
       </c>
